--- a/homework/selenium/x.xlsx
+++ b/homework/selenium/x.xlsx
@@ -2104,34 +2104,30 @@
           <t xml:space="preserve"> TOTAL</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
         <is>
           <t>2.741.945</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>8.461</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6.832</t>
+          <t>2.748.777</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.953</t>
+          <t>2.754.730</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.602</t>
+          <t>2.760.332</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.837</t>
+          <t>2.765.169</t>
         </is>
       </c>
     </row>
